--- a/01_input/2024_adr_nna_indicadores.xlsx
+++ b/01_input/2024_adr_nna_indicadores.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula.costa\Documents\GitHub\2024_ven_adr_nna_345w\01_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef-my.sharepoint.com/personal/paucosta_unicef_org/Documents/UNICEF/02_Cluster/01_Child_Protection/02_5w/2024_03/02_analysis/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F97343-69EE-4953-A876-B4D3DCA95163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="689" documentId="8_{ECDDFAF1-2D4D-478B-AF6F-5BA43C0F0DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C97909-11E3-4C79-81CB-128E0616B91A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67B5BC13-3CD3-4D4E-B40F-15C81BAB0D94}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67B5BC13-3CD3-4D4E-B40F-15C81BAB0D94}"/>
   </bookViews>
   <sheets>
     <sheet name="nna" sheetId="3" r:id="rId1"/>
+    <sheet name="cleaning" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="125">
   <si>
     <t>activity</t>
   </si>
@@ -110,6 +113,171 @@
     <t>sectorial_objective</t>
   </si>
   <si>
+    <t>10.01: NNA - Capacitar a personas de la comunidad en temas de protección de niños, niñas y adolescentes (crianza positiva, prevención de la separación familiar y derecho a crecer en familia, derechos de NNA, prevención de violencias en contra de NNA, incluida violencia sexual, sistema de protección de NNA)</t>
+  </si>
+  <si>
+    <t>2.13: NNA - Proveer actividades de salud mental y apoyo psicosocial individual a NNA en riesgo y con necesidades de protección con enfoque de género, edad y diversidad</t>
+  </si>
+  <si>
+    <t>2.14: NNA - Proveer actividades de salud mental y apoyo psicosocial grupal a NNA en riesgo y con necesidades de protección con enfoque de género, edad y diversidad</t>
+  </si>
+  <si>
+    <t>2.15: NNA - Proveer actividades de salud mental y apoyo psicosocial individual a personas cuidadoras de NNA en riesgo y con necesidades de protección con enfoque de género, edad y diversidad</t>
+  </si>
+  <si>
+    <t>2.16: NNA - Proveer actividades de salud mental y apoyo psicosocial grupal a personas cuidadoras de NNA en riesgo y con necesidades de protección con enfoque de género, edad y diversidad</t>
+  </si>
+  <si>
+    <t>2.17: NNA - Proveer servicios de apoyo integral para la localización y reunificación de NNA en riesgo, incluyendo NNA no acompañados y separados con enfoque sensible al género, edad y diversidad</t>
+  </si>
+  <si>
+    <t>2.18: NNA - Proveer programas de cuidado alternativo a NNA en riesgo con enfoque sensible al género, edad y diversidad</t>
+  </si>
+  <si>
+    <t>2.19: NNA - Proveer programas y servicios especializados de protección a NNA afectados y en riesgos de protección, incluyendo la gestión de casos, con enfoque sensible al género, edad y diversidad</t>
+  </si>
+  <si>
+    <t>4.03: NNA - Apoyar el registro civil de nacimientos de NNA</t>
+  </si>
+  <si>
+    <t>4.04: NNA - Apoyar la expedición de otros documentos de identidad para NNA</t>
+  </si>
+  <si>
+    <t>1.01: NNA - Capacitar y brindar asistencia técnica a personas de las instituciones del Estado sobre temas de protección de NNA</t>
+  </si>
+  <si>
+    <t>1.02: NNA - Capacitar y brindar asistencia técnica a miembros de ONG y organizaciones de la sociedad civil sobre temas de protección de NNA</t>
+  </si>
+  <si>
+    <t>1.03: NNA - Proveer dotaciones de asistencia material a las instituciones del Estado competentes en materia de protección de NNA</t>
+  </si>
+  <si>
+    <t>10.02: NNA - Sensibilizar y/u orientar a NNA, mujeres y hombres sobre temas de protección de NNA (prevención y respuesta a la violencia, abuso, explotación y negligencia de NNA, incluida la violencia sexual, y prevención de la separación familiar)</t>
+  </si>
+  <si>
+    <t>10.03: NNA - Establecer y fortalecer redes de NNA y jóvenes y otros mecanismos comunitatios para la protección y participación de NNA</t>
+  </si>
+  <si>
+    <t>#reached+f+children+age0_5
+#reached+m+children+age0_5
+#reached+f+children+age6_9
+#reached+m+children+age6_9
+#reached+f+children+age10_11
+#reached+m+children+age10_11
+#reached+f+children+age12_14
+#reached+m+children+age12_14
+#reached+f+children+age15_17
+#reached+m+children+age15_17
+#reached+legal+f+children+age0_11
+#reached+legal+m+children+age0_11
+#reached+legal+f+children+age12_13
+#reached+legal+m+children+age12_13
+#reached+legal+f+children+age14_17
+#reached+legal+m+children+age14_17
+#reached+birth+f+children+age0_3m
+#reached+birth+m+children+age0_3m
+#reached+birth+f+children+age4m_8
+#reached+birth+m+children+age4m_8
+#reached+birth+f+children+age9_18
+#reached+birth+m+children+age9_18</t>
+  </si>
+  <si>
+    <t>#reached+f+adult+age18_59
+#reached+m+adult+age18_59
+#reached+f+elderly+age60_
+#reached+m+elderly+age60_</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>#reached+f+children+age0_5</t>
+  </si>
+  <si>
+    <t>#reached+m+children+age0_5</t>
+  </si>
+  <si>
+    <t>#reached+f+children+age6_9</t>
+  </si>
+  <si>
+    <t>#reached+m+children+age6_9</t>
+  </si>
+  <si>
+    <t>#reached+f+children+age10_11</t>
+  </si>
+  <si>
+    <t>#reached+m+children+age10_11</t>
+  </si>
+  <si>
+    <t>#reached+f+children+age12_14</t>
+  </si>
+  <si>
+    <t>#reached+m+children+age12_14</t>
+  </si>
+  <si>
+    <t>#reached+f+children+age15_17</t>
+  </si>
+  <si>
+    <t>#reached+m+children+age15_17</t>
+  </si>
+  <si>
+    <t>#reached+legal+f+children+age0_11</t>
+  </si>
+  <si>
+    <t>#reached+legal+m+children+age0_11</t>
+  </si>
+  <si>
+    <t>#reached+legal+f+children+age12_13</t>
+  </si>
+  <si>
+    <t>#reached+legal+m+children+age12_13</t>
+  </si>
+  <si>
+    <t>#reached+legal+f+children+age14_17</t>
+  </si>
+  <si>
+    <t>#reached+legal+m+children+age14_17</t>
+  </si>
+  <si>
+    <t>#reached+birth+f+children+age0_3m</t>
+  </si>
+  <si>
+    <t>#reached+birth+m+children+age0_3m</t>
+  </si>
+  <si>
+    <t>#reached+birth+f+children+age4m_8</t>
+  </si>
+  <si>
+    <t>#reached+birth+m+children+age4m_8</t>
+  </si>
+  <si>
+    <t>#reached+birth+f+children+age9_18</t>
+  </si>
+  <si>
+    <t>#reached+birth+m+children+age9_18</t>
+  </si>
+  <si>
+    <t>#reached+f+adult+age18_59</t>
+  </si>
+  <si>
+    <t>#reached+m+adult+age18_59</t>
+  </si>
+  <si>
+    <t>#reached+f+elderly+age60_</t>
+  </si>
+  <si>
+    <t>#reached+m+elderly+age60_</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>1.1.2.5: # de NNA afectados y en riesgos de protección que acceden a servicios de protección de la niñez utilizando un enfoque de género, edad y diversidad</t>
   </si>
   <si>
@@ -123,13 +291,160 @@
   </si>
   <si>
     <t>3.3.2.1: # de personas de instituciones del Estado y sociedad civil capacitadas y apoyadas con asistencia técnica en temas de protección de niños, niñas y adolescentes</t>
+  </si>
+  <si>
+    <t>Niñas de 0 a 5 años</t>
+  </si>
+  <si>
+    <t>Niños de 0 a 5 años</t>
+  </si>
+  <si>
+    <t>Niñas de 6 a 9 años</t>
+  </si>
+  <si>
+    <t>Niños de 6 a 9 años</t>
+  </si>
+  <si>
+    <t>Niñas de 10 a 11 años</t>
+  </si>
+  <si>
+    <t>Niños de 10 a 11 años</t>
+  </si>
+  <si>
+    <t>Niñas de 12 a 14 años</t>
+  </si>
+  <si>
+    <t>Niños de 12 a 14 años</t>
+  </si>
+  <si>
+    <t>Niñas de 15 a 17 años</t>
+  </si>
+  <si>
+    <t>Niños de 15 a 17 años</t>
+  </si>
+  <si>
+    <t>Mujeres de 18 a 59 años</t>
+  </si>
+  <si>
+    <t>Hombres de 18 a 59 años</t>
+  </si>
+  <si>
+    <t>Mujeres de 60 años o más</t>
+  </si>
+  <si>
+    <t>Hombres de 60 años o más</t>
+  </si>
+  <si>
+    <t>Asistencia Legal - Niñas de 0 a 11 años</t>
+  </si>
+  <si>
+    <t>Asistencia Legal - Niños de 0 a 11 años</t>
+  </si>
+  <si>
+    <t>Asistencia Legal - Niñas de 12 a 13 años</t>
+  </si>
+  <si>
+    <t>Asistencia Legal - Niños de 12 a 13 años</t>
+  </si>
+  <si>
+    <t>Asistencia Legal - Niñas de 14 a 17 años</t>
+  </si>
+  <si>
+    <t>Asistencia Legal - Niños de 14 a 17 años</t>
+  </si>
+  <si>
+    <t>Asistencia en registro - Niñas de 0 a 3 meses</t>
+  </si>
+  <si>
+    <t>Asistencia en registro - Niños de 0 a 3 meses</t>
+  </si>
+  <si>
+    <t>Asistencia en registro - Niñas de 4 meses a 8 años</t>
+  </si>
+  <si>
+    <t>Asistencia en registro - Niños de 4 meses a 8 años</t>
+  </si>
+  <si>
+    <t>Asistencia en registro - Niñas de 9 a 17 años</t>
+  </si>
+  <si>
+    <t>Asistencia en registro - Niños de 9 a 17 años</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Desagregacion</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>#activity+name+selected</t>
+  </si>
+  <si>
+    <t>10.02: NNA - Sensibilizar y/u orientar  a NNA, mujeres y hombres sobre temas de protección de NNA (prevención y respuesta a la violencia, abuso, explotación y negligencia de NNA, incluida la violencia sexual, y prevención de la separación familiar)</t>
+  </si>
+  <si>
+    <t>11.01: NNA - Capacitar y brindar asistencia técnica a personas de las instituciones del Estado sobre temas de protección de NNA</t>
+  </si>
+  <si>
+    <t>11.02: NNA - Capacitar y brindar asistencia técnica a miembros de ONG y organizaciones de la sociedad civil sobre temas de protección de NNA</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>11.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +473,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +490,53 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95C651"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,8 +553,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,20 +587,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -220,6 +648,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6288F53A-7E8C-4ECD-A9C0-6EAEBC12FFAE}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,140 +985,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -704,4 +1136,1969 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE404DD0-6281-4029-A23F-5F9E4AF2B4E9}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3D059-AF9E-46E3-8D79-8AADCA6C094E}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B738E99-FCE2-48A2-9894-8307F40D5849}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B2:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>